--- a/Sufficient data WITH_PO/B08LGKGBKT_Optuna_PO_Forecast.xlsx
+++ b/Sufficient data WITH_PO/B08LGKGBKT_Optuna_PO_Forecast.xlsx
@@ -942,7 +942,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="64">
